--- a/2020/cursos/informatica/Decimo grado/Listados Informatica 10-3.xlsx
+++ b/2020/cursos/informatica/Decimo grado/Listados Informatica 10-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Decimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B0213-C0FC-4E3F-B29C-888AF4D3A25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB9399-CC31-4A22-A394-5E5480480578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="14400" windowHeight="12570" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
   <si>
     <t>Codigo</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,8 +603,11 @@
       <c r="D3" s="8">
         <v>43983</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2737</v>
       </c>
@@ -617,8 +620,12 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>649</v>
       </c>
@@ -631,8 +638,12 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4355</v>
       </c>
@@ -645,8 +656,12 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>675</v>
       </c>
@@ -656,8 +671,12 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4057</v>
       </c>
@@ -670,8 +689,12 @@
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>803</v>
       </c>
@@ -684,8 +707,12 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>727</v>
       </c>
@@ -698,8 +725,12 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1390</v>
       </c>
@@ -712,8 +743,12 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1416</v>
       </c>
@@ -726,8 +761,12 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1400</v>
       </c>
@@ -740,8 +779,12 @@
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2831</v>
       </c>
@@ -754,8 +797,12 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>807</v>
       </c>
@@ -768,8 +815,12 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3175</v>
       </c>
@@ -782,8 +833,12 @@
       <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2352</v>
       </c>
@@ -796,8 +851,12 @@
       <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>738</v>
       </c>
@@ -810,8 +869,12 @@
       <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1763</v>
       </c>
@@ -824,8 +887,12 @@
       <c r="D19" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1420</v>
       </c>
@@ -838,8 +905,12 @@
       <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2310</v>
       </c>
@@ -852,8 +923,12 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1433</v>
       </c>
@@ -863,8 +938,12 @@
       <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2015</v>
       </c>
@@ -874,8 +953,12 @@
       <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>710</v>
       </c>
@@ -888,8 +971,12 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3373</v>
       </c>
@@ -899,8 +986,12 @@
       <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>4301</v>
       </c>
@@ -913,8 +1004,12 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>713</v>
       </c>
@@ -927,8 +1022,12 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2808</v>
       </c>
@@ -941,8 +1040,12 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4302</v>
       </c>
@@ -955,8 +1058,12 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3379</v>
       </c>
@@ -969,8 +1076,12 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>638</v>
       </c>
@@ -983,8 +1094,12 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1423</v>
       </c>
@@ -997,8 +1112,12 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1436</v>
       </c>
@@ -1011,8 +1130,12 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>639</v>
       </c>
@@ -1025,8 +1148,12 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2835</v>
       </c>
@@ -1039,8 +1166,12 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2000</v>
       </c>
@@ -1053,14 +1184,21 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="11">
         <f>COUNTA(D4:D36)</f>
         <v>29</v>
+      </c>
+      <c r="E37" s="11">
+        <f>COUNTA(E4:E36)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
